--- a/Project Files/Forms System Final/exports/jh_sf5.xlsx
+++ b/Project Files/Forms System Final/exports/jh_sf5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CBNHS System\Project Files\Forms System Final\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEC4C413-AADF-4A3D-8A61-18E920EAAB21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BE888B9-DBF7-4660-BDF0-50E1AA240B6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>PROMOTED</t>
-  </si>
-  <si>
-    <t>CONDITIONALLY PROMOTED</t>
   </si>
   <si>
     <t>RETAINED</t>
@@ -239,6 +236,10 @@
     </r>
   </si>
   <si>
+    <t>CONDITIONALLY
+PROMOTED</t>
+  </si>
+  <si>
     <t>304356</t>
   </si>
   <si>
@@ -263,7 +264,7 @@
     <t>K-12</t>
   </si>
   <si>
-    <t xml:space="preserve">FUMINO ONA FURAHASHI </t>
+    <t>FURAHASHI, FUMINO, ONA</t>
   </si>
   <si>
     <t>0</t>
@@ -831,6 +832,129 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,143 +964,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1338,7 +1339,7 @@
   <dimension ref="A1:M64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,121 +1353,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
     </row>
     <row r="3" spans="1:13" s="20" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
     </row>
     <row r="4" spans="1:13" s="20" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="52" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="36"/>
     </row>
     <row r="5" spans="1:13" s="20" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="52" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="D5" s="53"/>
-      <c r="E5" s="63" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="63"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="41"/>
       <c r="G5" s="21" t="s">
         <v>47</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5" s="22"/>
-      <c r="J5" s="52" t="s">
+      <c r="J5" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="K5" s="53"/>
+      <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:13" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="18" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="18" t="s">
-        <v>24</v>
       </c>
       <c r="I6" s="23"/>
       <c r="J6" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="K6" s="76" t="s">
-        <v>25</v>
-      </c>
-      <c r="L6" s="52" t="s">
+      <c r="K6" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="M6" s="53"/>
+      <c r="M6" s="36"/>
     </row>
     <row r="7" spans="1:13" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="66"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="44"/>
       <c r="F7" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>4</v>
@@ -1479,12 +1480,12 @@
       <c r="A8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="25" t="s">
         <v>54</v>
       </c>
@@ -1494,23 +1495,23 @@
       <c r="H8" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="54" t="s">
-        <v>13</v>
-      </c>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="56"/>
+      <c r="J8" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="26" t="s">
         <v>57</v>
       </c>
@@ -1537,12 +1538,12 @@
       <c r="A10" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="26" t="s">
         <v>54</v>
       </c>
@@ -1569,12 +1570,12 @@
       <c r="A11" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
       <c r="F11" s="26" t="s">
         <v>54</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>54</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>52</v>
@@ -1599,15 +1600,15 @@
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="26"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="26"/>
       <c r="G12" s="26"/>
       <c r="H12" s="26"/>
       <c r="J12" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K12" s="8" t="s">
         <v>52</v>
@@ -1621,41 +1622,41 @@
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="26"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="26"/>
       <c r="G13" s="26"/>
       <c r="H13" s="26"/>
     </row>
     <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="26"/>
       <c r="G14" s="26"/>
       <c r="H14" s="26"/>
-      <c r="J14" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="56"/>
+      <c r="J14" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="26"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="26"/>
       <c r="G15" s="26"/>
       <c r="H15" s="26"/>
       <c r="J15" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>7</v>
@@ -1669,151 +1670,151 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="26"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="26"/>
       <c r="G16" s="26"/>
       <c r="H16" s="26"/>
-      <c r="J16" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="58" t="s">
+      <c r="J16" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="L16" s="59" t="s">
+      <c r="L16" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="M16" s="59" t="s">
+      <c r="M16" s="30" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="26"/>
       <c r="G17" s="26"/>
       <c r="H17" s="26"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="26"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="26"/>
       <c r="G18" s="26"/>
       <c r="H18" s="26"/>
-      <c r="J18" s="51" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="48" t="s">
+      <c r="J18" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="K18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="L18" s="48" t="s">
+      <c r="L18" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="M18" s="48" t="s">
+      <c r="M18" s="57" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="26"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="26"/>
       <c r="G19" s="26"/>
       <c r="H19" s="26"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="27"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
       <c r="F20" s="27"/>
       <c r="G20" s="27"/>
       <c r="H20" s="27"/>
-      <c r="J20" s="72" t="s">
+      <c r="J20" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J21" s="32"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J22" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="70" t="s">
+      <c r="K22" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L22" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J23" s="32"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J24" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="M20" s="70" t="s">
+      <c r="L24" s="29" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J21" s="74"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J22" s="72" t="s">
-        <v>19</v>
-      </c>
-      <c r="K22" s="70" t="s">
+      <c r="M24" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="L22" s="70" t="s">
-        <v>59</v>
-      </c>
-      <c r="M22" s="70" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J23" s="74"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J24" s="72" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="70" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="70" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J25" s="73"/>
-      <c r="K25" s="71"/>
-      <c r="L25" s="71"/>
-      <c r="M25" s="71"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J27" s="42" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
+      <c r="J27" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J28" s="14"/>
@@ -1822,28 +1823,28 @@
       <c r="M28" s="14"/>
     </row>
     <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J29" s="43" t="s">
+      <c r="J29" s="58" t="s">
         <v>51</v>
       </c>
-      <c r="K29" s="43"/>
-      <c r="L29" s="43"/>
-      <c r="M29" s="43"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="58"/>
+      <c r="M29" s="58"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J30" s="69" t="s">
+      <c r="J30" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J31" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="K30" s="69"/>
-      <c r="L30" s="69"/>
-      <c r="M30" s="69"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="J31" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K31" s="45"/>
-      <c r="L31" s="45"/>
-      <c r="M31" s="45"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
     </row>
     <row r="32" spans="1:13" ht="16.5" x14ac:dyDescent="0.25">
       <c r="J32" s="1"/>
@@ -1852,12 +1853,12 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J33" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="K33" s="46"/>
-      <c r="L33" s="46"/>
-      <c r="M33" s="46"/>
+      <c r="J33" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="64"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="64"/>
     </row>
     <row r="34" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J34" s="15"/>
@@ -1866,26 +1867,26 @@
       <c r="M34" s="15"/>
     </row>
     <row r="35" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J35" s="43"/>
-      <c r="K35" s="43"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="43"/>
+      <c r="J35" s="58"/>
+      <c r="K35" s="58"/>
+      <c r="L35" s="58"/>
+      <c r="M35" s="58"/>
     </row>
     <row r="36" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J36" s="69" t="s">
-        <v>31</v>
-      </c>
-      <c r="K36" s="69"/>
-      <c r="L36" s="69"/>
-      <c r="M36" s="69"/>
+      <c r="J36" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
     </row>
     <row r="37" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J37" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K37" s="41"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="41"/>
+      <c r="J37" s="65" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="65"/>
     </row>
     <row r="38" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J38" s="16"/>
@@ -1894,12 +1895,12 @@
       <c r="M38" s="16"/>
     </row>
     <row r="39" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J39" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
-      <c r="M39" s="42"/>
+      <c r="J39" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
     </row>
     <row r="40" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J40" s="17"/>
@@ -1908,167 +1909,193 @@
       <c r="M40" s="17"/>
     </row>
     <row r="41" spans="10:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
+      <c r="J41" s="58"/>
+      <c r="K41" s="58"/>
+      <c r="L41" s="58"/>
+      <c r="M41" s="58"/>
     </row>
     <row r="42" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J42" s="69" t="s">
+      <c r="J42" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62"/>
+    </row>
+    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J43" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+    </row>
+    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J45" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="K42" s="69"/>
-      <c r="L42" s="69"/>
-      <c r="M42" s="69"/>
-    </row>
-    <row r="43" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J43" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-    </row>
-    <row r="45" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J45" s="33" t="s">
+      <c r="K45" s="37"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="37"/>
+    </row>
+    <row r="46" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J46" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="K45" s="33"/>
-      <c r="L45" s="33"/>
-      <c r="M45" s="33"/>
-    </row>
-    <row r="46" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J46" s="29" t="s">
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+    </row>
+    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+    </row>
+    <row r="48" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J48" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="K46" s="29"/>
-      <c r="L46" s="29"/>
-      <c r="M46" s="29"/>
-    </row>
-    <row r="47" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J47" s="29"/>
-      <c r="K47" s="29"/>
-      <c r="L47" s="29"/>
-      <c r="M47" s="29"/>
-    </row>
-    <row r="48" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J48" s="30" t="s">
+      <c r="K48" s="71"/>
+      <c r="L48" s="71"/>
+      <c r="M48" s="71"/>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J49" s="71"/>
+      <c r="K49" s="71"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="71"/>
+    </row>
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J50" s="71"/>
+      <c r="K50" s="71"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="71"/>
+    </row>
+    <row r="51" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J51" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="K51" s="71"/>
+      <c r="L51" s="71"/>
+      <c r="M51" s="71"/>
+    </row>
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J52" s="71"/>
+      <c r="K52" s="71"/>
+      <c r="L52" s="71"/>
+      <c r="M52" s="71"/>
+    </row>
+    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J53" s="71"/>
+      <c r="K53" s="71"/>
+      <c r="L53" s="71"/>
+      <c r="M53" s="71"/>
+    </row>
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J54" s="71"/>
+      <c r="K54" s="71"/>
+      <c r="L54" s="71"/>
+      <c r="M54" s="71"/>
+    </row>
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J55" s="71"/>
+      <c r="K55" s="71"/>
+      <c r="L55" s="71"/>
+      <c r="M55" s="71"/>
+    </row>
+    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J56" s="71"/>
+      <c r="K56" s="71"/>
+      <c r="L56" s="71"/>
+      <c r="M56" s="71"/>
+    </row>
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J57" s="71"/>
+      <c r="K57" s="71"/>
+      <c r="L57" s="71"/>
+      <c r="M57" s="71"/>
+    </row>
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+    </row>
+    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J59" s="71"/>
+      <c r="K59" s="71"/>
+      <c r="L59" s="71"/>
+      <c r="M59" s="71"/>
+    </row>
+    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+    </row>
+    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J61" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="K48" s="30"/>
-      <c r="L48" s="30"/>
-      <c r="M48" s="30"/>
-    </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J49" s="30"/>
-      <c r="K49" s="30"/>
-      <c r="L49" s="30"/>
-      <c r="M49" s="30"/>
-    </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J50" s="30"/>
-      <c r="K50" s="30"/>
-      <c r="L50" s="30"/>
-      <c r="M50" s="30"/>
-    </row>
-    <row r="51" spans="10:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J51" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-    </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J52" s="30"/>
-      <c r="K52" s="30"/>
-      <c r="L52" s="30"/>
-      <c r="M52" s="30"/>
-    </row>
-    <row r="53" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
-      <c r="L53" s="30"/>
-      <c r="M53" s="30"/>
-    </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J54" s="30"/>
-      <c r="K54" s="30"/>
-      <c r="L54" s="30"/>
-      <c r="M54" s="30"/>
-    </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
-      <c r="L55" s="30"/>
-      <c r="M55" s="30"/>
-    </row>
-    <row r="56" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J56" s="30"/>
-      <c r="K56" s="30"/>
-      <c r="L56" s="30"/>
-      <c r="M56" s="30"/>
-    </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-    </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J58" s="30"/>
-      <c r="K58" s="30"/>
-      <c r="L58" s="30"/>
-      <c r="M58" s="30"/>
-    </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J59" s="30"/>
-      <c r="K59" s="30"/>
-      <c r="L59" s="30"/>
-      <c r="M59" s="30"/>
-    </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J60" s="30"/>
-      <c r="K60" s="30"/>
-      <c r="L60" s="30"/>
-      <c r="M60" s="30"/>
-    </row>
-    <row r="61" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J61" s="31" t="s">
+      <c r="K61" s="66"/>
+      <c r="L61" s="66"/>
+      <c r="M61" s="66"/>
+    </row>
+    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J62" s="66"/>
+      <c r="K62" s="66"/>
+      <c r="L62" s="66"/>
+      <c r="M62" s="66"/>
+    </row>
+    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="J63" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="K61" s="31"/>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-    </row>
-    <row r="62" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J62" s="31"/>
-      <c r="K62" s="31"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-    </row>
-    <row r="63" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J63" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="32"/>
-      <c r="L63" s="32"/>
-      <c r="M63" s="32"/>
+      <c r="K63" s="67"/>
+      <c r="L63" s="67"/>
+      <c r="M63" s="67"/>
     </row>
     <row r="64" spans="10:13" x14ac:dyDescent="0.25">
-      <c r="J64" s="32"/>
-      <c r="K64" s="32"/>
-      <c r="L64" s="32"/>
-      <c r="M64" s="32"/>
+      <c r="J64" s="67"/>
+      <c r="K64" s="67"/>
+      <c r="L64" s="67"/>
+      <c r="M64" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="J61:M62"/>
+    <mergeCell ref="J63:M64"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="J46:M47"/>
+    <mergeCell ref="J48:M50"/>
+    <mergeCell ref="J51:M60"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="J45:M45"/>
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="C4:D4"/>
@@ -2085,6 +2112,12 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="C6:G6"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B20:E20"/>
@@ -2095,38 +2128,6 @@
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="K16:K17"/>
     <mergeCell ref="L16:L17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J39:M39"/>
-    <mergeCell ref="J41:M41"/>
-    <mergeCell ref="J42:M42"/>
-    <mergeCell ref="J43:M43"/>
-    <mergeCell ref="J61:M62"/>
-    <mergeCell ref="J63:M64"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="J46:M47"/>
-    <mergeCell ref="J48:M50"/>
-    <mergeCell ref="J51:M60"/>
-    <mergeCell ref="J36:M36"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" fitToHeight="0" orientation="portrait" r:id="rId1"/>
